--- a/Librería de Producción/Librería de Trabajo/SCV/Analisis/SCV_MT.xlsx
+++ b/Librería de Producción/Librería de Trabajo/SCV/Analisis/SCV_MT.xlsx
@@ -46,9 +46,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>CU</t>
-  </si>
-  <si>
     <t>CU-01</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>CU-03</t>
   </si>
   <si>
-    <t>PROCESO DE INGRESO</t>
-  </si>
-  <si>
-    <t>PROCESO DE SALIDA</t>
-  </si>
-  <si>
     <t>CU-04</t>
   </si>
   <si>
@@ -71,13 +62,22 @@
   </si>
   <si>
     <t>CU-06</t>
+  </si>
+  <si>
+    <t>CLASES</t>
+  </si>
+  <si>
+    <t>CASOS DE USO</t>
+  </si>
+  <si>
+    <t>MATRIZ DE TRAZABILIDAD CASOS DE USO VS CLASES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +85,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,11 +137,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +230,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -136,6 +262,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -434,149 +565,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F11"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Librería de Producción/Librería de Trabajo/SCV/Analisis/SCV_MT.xlsx
+++ b/Librería de Producción/Librería de Trabajo/SCV/Analisis/SCV_MT.xlsx
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,30 +232,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +569,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,35 +582,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
